--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.647223638653</v>
+        <v>83.82870788359915</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.18967165036375</v>
+        <v>114.6981363878757</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.48665737358314</v>
+        <v>103.7515072308919</v>
       </c>
       <c r="AD2" t="n">
-        <v>66647.223638653</v>
+        <v>83828.70788359916</v>
       </c>
       <c r="AE2" t="n">
-        <v>91189.67165036374</v>
+        <v>114698.1363878757</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.578614313625803e-06</v>
+        <v>1.092581856504288e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82486.65737358315</v>
+        <v>103751.5072308919</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.08476701934394</v>
+        <v>56.71822432337836</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.79169958604808</v>
+        <v>77.60437675067706</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.51263211680004</v>
+        <v>70.19792395203712</v>
       </c>
       <c r="AD3" t="n">
-        <v>48084.76701934394</v>
+        <v>56718.22432337836</v>
       </c>
       <c r="AE3" t="n">
-        <v>65791.69958604808</v>
+        <v>77604.37675067707</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.882047728656566e-06</v>
+        <v>1.424659655001501e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.076171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>59512.63211680004</v>
+        <v>70197.92395203712</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.25357050193617</v>
+        <v>56.67108356549014</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.02266395801476</v>
+        <v>77.53987668603098</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.72155357326681</v>
+        <v>70.13957968303441</v>
       </c>
       <c r="AD2" t="n">
-        <v>48253.57050193618</v>
+        <v>56671.08356549014</v>
       </c>
       <c r="AE2" t="n">
-        <v>66022.66395801476</v>
+        <v>77539.87668603098</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.551954765023997e-06</v>
+        <v>1.398370244145907e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>59721.55357326681</v>
+        <v>70139.57968303442</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.41562451079587</v>
+        <v>54.83313757434983</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.50790516848337</v>
+        <v>75.02511789649959</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.44679983312137</v>
+        <v>67.86482594288898</v>
       </c>
       <c r="AD3" t="n">
-        <v>46415.62451079587</v>
+        <v>54833.13757434983</v>
       </c>
       <c r="AE3" t="n">
-        <v>63507.90516848337</v>
+        <v>75025.11789649959</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.019492680505357e-05</v>
+        <v>1.49249893201275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.082682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>57446.79983312137</v>
+        <v>67864.82594288899</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.35294329250742</v>
+        <v>59.88752076098692</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.68565372654957</v>
+        <v>81.94074795610179</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.89390010775006</v>
+        <v>74.12043797575269</v>
       </c>
       <c r="AD2" t="n">
-        <v>44352.94329250742</v>
+        <v>59887.52076098692</v>
       </c>
       <c r="AE2" t="n">
-        <v>60685.65372654957</v>
+        <v>81940.74795610178</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.724820962516579e-06</v>
+        <v>1.504549839201314e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54893.90010775006</v>
+        <v>74120.43797575269</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.73183322995902</v>
+        <v>60.60417205285577</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.20406765441492</v>
+        <v>82.92130187005989</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.36283733793861</v>
+        <v>75.00740920037902</v>
       </c>
       <c r="AD2" t="n">
-        <v>44731.83322995903</v>
+        <v>60604.17205285577</v>
       </c>
       <c r="AE2" t="n">
-        <v>61204.06765441492</v>
+        <v>82921.30187005989</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.013765531284298e-05</v>
+        <v>1.532097732841752e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.310546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>55362.83733793862</v>
+        <v>75007.40920037901</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.44565384103347</v>
+        <v>67.478025769295</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.75845732422918</v>
+        <v>92.32641177791076</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.90993087084811</v>
+        <v>83.51490861878224</v>
       </c>
       <c r="AD2" t="n">
-        <v>52445.65384103347</v>
+        <v>67478.025769295</v>
       </c>
       <c r="AE2" t="n">
-        <v>71758.45732422918</v>
+        <v>92326.41177791076</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.033983719234939e-06</v>
+        <v>1.427810277320078e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.033203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>64909.93087084811</v>
+        <v>83514.90861878224</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.12411791465687</v>
+        <v>66.90189101894509</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.58202945082562</v>
+        <v>91.53811879521109</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.03665681553664</v>
+        <v>82.80184921197504</v>
       </c>
       <c r="AD2" t="n">
-        <v>50124.11791465687</v>
+        <v>66901.8910189451</v>
       </c>
       <c r="AE2" t="n">
-        <v>68582.02945082562</v>
+        <v>91538.11879521109</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.074471236663557e-06</v>
+        <v>1.322954719502619e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.434244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>62036.65681553664</v>
+        <v>82801.84921197504</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.88123087024905</v>
+        <v>55.3555030312403</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.14496833058976</v>
+        <v>75.73984135975429</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.02306258116028</v>
+        <v>68.51133720193157</v>
       </c>
       <c r="AD3" t="n">
-        <v>46881.23087024905</v>
+        <v>55355.5030312403</v>
       </c>
       <c r="AE3" t="n">
-        <v>64144.96833058976</v>
+        <v>75739.8413597543</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.010305935435043e-05</v>
+        <v>1.472911170873607e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.082682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>58023.06258116028</v>
+        <v>68511.33720193157</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.99377282273156</v>
+        <v>67.77924543879837</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.50841789629099</v>
+        <v>92.73855381859903</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.58831625848883</v>
+        <v>83.88771640155234</v>
       </c>
       <c r="AD2" t="n">
-        <v>52993.77282273157</v>
+        <v>67779.24543879837</v>
       </c>
       <c r="AE2" t="n">
-        <v>72508.41789629099</v>
+        <v>92738.55381859903</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.474512750807783e-06</v>
+        <v>1.357816007016118e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>65588.31625848883</v>
+        <v>83887.71640155234</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.76390305616954</v>
+        <v>53.99720538669337</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.61619112234268</v>
+        <v>73.88135859862325</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.64018972401556</v>
+        <v>66.83022542712534</v>
       </c>
       <c r="AD2" t="n">
-        <v>45763.90305616954</v>
+        <v>53997.20538669337</v>
       </c>
       <c r="AE2" t="n">
-        <v>62616.19112234269</v>
+        <v>73881.35859862325</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012030972969853e-05</v>
+        <v>1.502707305498608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.199869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>56640.18972401556</v>
+        <v>66830.22542712535</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.6212134795724</v>
+        <v>53.85451581009625</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.42095694862274</v>
+        <v>73.6861244249033</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.4635884258225</v>
+        <v>66.65362412893228</v>
       </c>
       <c r="AD3" t="n">
-        <v>45621.2134795724</v>
+        <v>53854.51581009624</v>
       </c>
       <c r="AE3" t="n">
-        <v>62420.95694862274</v>
+        <v>73686.1244249033</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020360241238411e-05</v>
+        <v>1.515074962824242e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.173828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>56463.5884258225</v>
+        <v>66653.62412893228</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.14111977434314</v>
+        <v>55.49971540454077</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.50055979466036</v>
+        <v>75.9371590911048</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.34471689497586</v>
+        <v>68.68982320593921</v>
       </c>
       <c r="AD2" t="n">
-        <v>47141.11977434314</v>
+        <v>55499.71540454077</v>
       </c>
       <c r="AE2" t="n">
-        <v>64500.55979466037</v>
+        <v>75937.1590911048</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.832229469812638e-06</v>
+        <v>1.445772787708485e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58344.71689497586</v>
+        <v>68689.8232059392</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.40035912308701</v>
+        <v>54.75895475328465</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.48701839155875</v>
+        <v>74.92361768800319</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.42790646087166</v>
+        <v>67.773012771835</v>
       </c>
       <c r="AD3" t="n">
-        <v>46400.35912308702</v>
+        <v>54758.95475328465</v>
       </c>
       <c r="AE3" t="n">
-        <v>63487.01839155875</v>
+        <v>74923.61768800319</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01083587226737e-05</v>
+        <v>1.486376006022551e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.141276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>57427.90646087166</v>
+        <v>67773.012771835</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.920305842118</v>
+        <v>72.08429625877613</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.1443853660525</v>
+        <v>98.62891427592753</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.97271069254074</v>
+        <v>89.21590912400811</v>
       </c>
       <c r="AD2" t="n">
-        <v>54920.305842118</v>
+        <v>72084.29625877613</v>
       </c>
       <c r="AE2" t="n">
-        <v>75144.38536605251</v>
+        <v>98628.91427592753</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.080020533437901e-06</v>
+        <v>1.16899515610702e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.792317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67972.71069254074</v>
+        <v>89215.9091240081</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.83340305269645</v>
+        <v>56.41548776957656</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.44777231748563</v>
+        <v>77.1901592419715</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.20152878404411</v>
+        <v>69.82323878100436</v>
       </c>
       <c r="AD3" t="n">
-        <v>47833.40305269645</v>
+        <v>56415.48776957656</v>
       </c>
       <c r="AE3" t="n">
-        <v>65447.77231748563</v>
+        <v>77190.1592419715</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.909753911937693e-06</v>
+        <v>1.433715950761177e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.092447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>59201.52878404412</v>
+        <v>69823.23878100436</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.9705702749321</v>
+        <v>53.06646901668197</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.53071821168202</v>
+        <v>72.6078840359836</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.65831282447718</v>
+        <v>65.67828948941083</v>
       </c>
       <c r="AD2" t="n">
-        <v>44970.5702749321</v>
+        <v>53066.46901668197</v>
       </c>
       <c r="AE2" t="n">
-        <v>61530.71821168202</v>
+        <v>72607.8840359836</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.01891587555658e-05</v>
+        <v>1.530090293319125e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.251953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>55658.31282447718</v>
+        <v>65678.28948941083</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.37565377157097</v>
+        <v>59.92144555513944</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.71672720591993</v>
+        <v>81.98716535611753</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.92200797786122</v>
+        <v>74.16242536425817</v>
       </c>
       <c r="AD2" t="n">
-        <v>44375.65377157097</v>
+        <v>59921.44555513943</v>
       </c>
       <c r="AE2" t="n">
-        <v>60716.72720591993</v>
+        <v>81987.16535611753</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.927956660194289e-06</v>
+        <v>1.522697125061168e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>54922.00797786122</v>
+        <v>74162.42536425818</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.35115392587382</v>
+        <v>59.68767410605643</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.68320543618019</v>
+        <v>81.66730894621386</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.89168547877733</v>
+        <v>73.87309560119432</v>
       </c>
       <c r="AD2" t="n">
-        <v>44351.15392587382</v>
+        <v>59687.67410605643</v>
       </c>
       <c r="AE2" t="n">
-        <v>60683.20543618019</v>
+        <v>81667.30894621386</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.47493248870763e-06</v>
+        <v>1.480439511709876e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.76953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>54891.68547877733</v>
+        <v>73873.09560119432</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.12493022410779</v>
+        <v>76.70853205098803</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.0020702910813</v>
+        <v>104.9559976937137</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.88959200367562</v>
+        <v>94.93914458052015</v>
       </c>
       <c r="AD2" t="n">
-        <v>62124.93022410778</v>
+        <v>76708.53205098803</v>
       </c>
       <c r="AE2" t="n">
-        <v>85002.0702910813</v>
+        <v>104955.9976937137</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.523083794882417e-06</v>
+        <v>1.226019010779834e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.094401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76889.59200367561</v>
+        <v>94939.14458052015</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.22890673868255</v>
+        <v>54.52619188645468</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.25242967527132</v>
+        <v>74.60514126483362</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.21570656241929</v>
+        <v>67.48493129150816</v>
       </c>
       <c r="AD2" t="n">
-        <v>46228.90673868255</v>
+        <v>54526.19188645468</v>
       </c>
       <c r="AE2" t="n">
-        <v>63252.42967527132</v>
+        <v>74605.14126483363</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.006578876850243e-05</v>
+        <v>1.487100311143983e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.18359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>57215.70656241929</v>
+        <v>67484.93129150817</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.89344588985222</v>
+        <v>54.19073103762434</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.79343734241372</v>
+        <v>74.14614893197603</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.80051981360969</v>
+        <v>67.06974454269856</v>
       </c>
       <c r="AD3" t="n">
-        <v>45893.44588985221</v>
+        <v>54190.73103762434</v>
       </c>
       <c r="AE3" t="n">
-        <v>62793.43734241372</v>
+        <v>74146.14893197603</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020956464877454e-05</v>
+        <v>1.508341483714253e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.141276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>56800.51981360969</v>
+        <v>67069.74454269857</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.486524904109</v>
+        <v>69.54449058552206</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.81437891583315</v>
+        <v>95.15384010546474</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.96051538423585</v>
+        <v>86.07249115507594</v>
       </c>
       <c r="AD2" t="n">
-        <v>52486.524904109</v>
+        <v>69544.49058552206</v>
       </c>
       <c r="AE2" t="n">
-        <v>71814.37891583315</v>
+        <v>95153.84010546474</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.552715907910209e-06</v>
+        <v>1.241998904094287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>64960.51538423585</v>
+        <v>86072.49115507594</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.42369894843085</v>
+        <v>55.95277129768841</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.88719708716029</v>
+        <v>76.55705015152444</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.69445406692856</v>
+        <v>69.25055273357518</v>
       </c>
       <c r="AD3" t="n">
-        <v>47423.69894843084</v>
+        <v>55952.77129768841</v>
       </c>
       <c r="AE3" t="n">
-        <v>64887.19708716028</v>
+        <v>76557.05015152444</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.983166373867944e-06</v>
+        <v>1.44972448859985e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.095703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>58694.45406692856</v>
+        <v>69250.55273357518</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.20965855010776</v>
+        <v>94.64199131546242</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.1686846104071</v>
+        <v>129.4933478277402</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.60872593884665</v>
+        <v>117.1346844561502</v>
       </c>
       <c r="AD2" t="n">
-        <v>73209.65855010776</v>
+        <v>94641.99131546242</v>
       </c>
       <c r="AE2" t="n">
-        <v>100168.6846104071</v>
+        <v>129493.3478277402</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.050404365585186e-06</v>
+        <v>1.008566360013591e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.559244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90608.72593884665</v>
+        <v>117134.6844561502</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.51756627433839</v>
+        <v>60.23205602537772</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.91089815294397</v>
+        <v>82.41215630466415</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.09764752222199</v>
+        <v>74.54685577315419</v>
       </c>
       <c r="AD2" t="n">
-        <v>44517.56627433839</v>
+        <v>60232.05602537771</v>
       </c>
       <c r="AE2" t="n">
-        <v>60910.89815294397</v>
+        <v>82412.15630466415</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.005832366457317e-05</v>
+        <v>1.530782938853542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.382161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>55097.64752222199</v>
+        <v>74546.8557731542</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.31643824270309</v>
+        <v>53.48274890428521</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.00395002380387</v>
+        <v>73.17745654317459</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.0863800566353</v>
+        <v>66.19350279591573</v>
       </c>
       <c r="AD2" t="n">
-        <v>45316.43824270309</v>
+        <v>53482.74890428521</v>
       </c>
       <c r="AE2" t="n">
-        <v>62003.95002380387</v>
+        <v>73177.45654317459</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.017957554214291e-05</v>
+        <v>1.519719718746336e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.216145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>56086.3800566353</v>
+        <v>66193.50279591573</v>
       </c>
     </row>
   </sheetData>
